--- a/week7/Lab 7/HTTP5126-L7-DatabaseDesign-Ali,Tashrif Radin.xlsx
+++ b/week7/Lab 7/HTTP5126-L7-DatabaseDesign-Ali,Tashrif Radin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radin\OneDrive\Desktop\uni\http5126\http5126\week7\Lab 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E07B7F-5DDB-488B-B470-C8F200C70758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28170E1F-CA70-4BD9-BBCC-2E0D8FF682DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database Purpose" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="111">
   <si>
     <t>Who will use the database? (ie. You? Specific business?)</t>
   </si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t xml:space="preserve">moon_type_id </t>
+  </si>
+  <si>
+    <t>formatted_mass_kg</t>
+  </si>
+  <si>
+    <t>formatted_radius_km</t>
   </si>
 </sst>
 </file>
@@ -802,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -880,6 +886,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1258,12 +1268,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101603</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>772353</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="123825" cy="657222"/>
+    <xdr:ext cx="135421" cy="550876"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="image4.png" title="Image">
@@ -1283,8 +1293,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="1609726" y="1949451"/>
-          <a:ext cx="657222" cy="123825"/>
+          <a:off x="809791" y="2281692"/>
+          <a:ext cx="550876" cy="135421"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1296,12 +1306,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6354</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>207760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="79373" cy="415922"/>
+    <xdr:ext cx="123548" cy="514765"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="image4.png" title="Image">
@@ -1321,8 +1331,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="4648202" y="2149478"/>
-          <a:ext cx="415922" cy="79373"/>
+          <a:off x="4160081" y="2382218"/>
+          <a:ext cx="514765" cy="123548"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1334,12 +1344,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>756418</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129536</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="123825" cy="657222"/>
+    <xdr:ext cx="100887" cy="535471"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="image4.png" title="Image">
@@ -1358,9 +1368,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="8324852" y="1885949"/>
-          <a:ext cx="657222" cy="123825"/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="10054187" y="2334654"/>
+          <a:ext cx="535471" cy="100887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2664,15 +2674,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2820,13 +2831,13 @@
         <v>41</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="13" x14ac:dyDescent="0.3">
@@ -2848,8 +2859,23 @@
       <c r="H9" s="20" t="s">
         <v>47</v>
       </c>
+      <c r="J9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="23" t="s">
         <v>5</v>
       </c>
@@ -2859,8 +2885,23 @@
       <c r="H10" s="20" t="s">
         <v>35</v>
       </c>
+      <c r="J10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="F11" s="24" t="s">
         <v>79</v>
       </c>
@@ -2870,82 +2911,128 @@
       <c r="H11" s="26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
+      <c r="K11" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="41"/>
+      <c r="D12" s="19"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="41"/>
+      <c r="D13" s="19"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="E14" s="1"/>
+      <c r="K14" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="F14" s="34" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="F16" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
-      <c r="J14" s="34" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="J16" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C17" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D17" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H17" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K17" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L17" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H18" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L18" s="20" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2954,9 +3041,9 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
